--- a/OP.Web/FileUpLoad/C1705.xlsx
+++ b/OP.Web/FileUpLoad/C1705.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="12720" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="C1705" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最小持仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最大持仓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -33,6 +29,10 @@
   </si>
   <si>
     <t>最大价位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小持仓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +434,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
